--- a/analysis_page_strip.xlsx
+++ b/analysis_page_strip.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14320" windowHeight="16900" xr2:uid="{1380874E-94DD-DB43-831B-EAA6682829BF}"/>
+    <workbookView xWindow="12220" yWindow="460" windowWidth="16580" windowHeight="16900" xr2:uid="{1380874E-94DD-DB43-831B-EAA6682829BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Run0</t>
   </si>
@@ -44,16 +44,10 @@
     <t>Wire Pair</t>
   </si>
   <si>
-    <t>Num 1</t>
+    <t>Timing</t>
   </si>
   <si>
-    <t>Num2</t>
-  </si>
-  <si>
-    <t>Res (Tohm)</t>
-  </si>
-  <si>
-    <t>Timing</t>
+    <t>Resistance (Tohm)</t>
   </si>
 </sst>
 </file>
@@ -430,7 +424,7 @@
   <dimension ref="A1:BE124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,196 +456,170 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
       <c r="M1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Q1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
       </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
       <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
         <v>7</v>
       </c>
-      <c r="T2" t="s">
+      <c r="S2" t="s">
         <v>6</v>
       </c>
-      <c r="V2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7.5244499999999999</v>
+      </c>
+      <c r="C3" s="3">
+        <v>42996.713900462964</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>12.26492</v>
+      </c>
+      <c r="G3" s="3">
+        <v>43085.560717592591</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>13.63017</v>
+      </c>
+      <c r="K3" s="3">
+        <v>43168.587002314816</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>11.52074</v>
+      </c>
+      <c r="O3" s="3">
+        <v>43228.462337962963</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>6.5934100000000004</v>
+      </c>
+      <c r="S3" s="3">
+        <v>43276.48642361111</v>
+      </c>
+      <c r="Y3" s="4"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>7.5244499999999999</v>
+        <v>5.2585499999999996</v>
       </c>
       <c r="C4" s="3">
-        <v>42996.713900462964</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7.5244499999999999</v>
-      </c>
-      <c r="E4" s="3">
-        <v>42996.713900462964</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>12.18027</v>
-      </c>
-      <c r="I4" s="3">
-        <v>43084.440879629627</v>
+        <v>42996.740324074075</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>11.139989999999999</v>
+      </c>
+      <c r="G4" s="3">
+        <v>43085.573564814818</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <v>2</v>
       </c>
       <c r="J4" s="1">
-        <v>12.26492</v>
+        <v>12.72265</v>
       </c>
       <c r="K4" s="3">
-        <v>43085.560717592591</v>
+        <v>43168.599178240744</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" s="1">
-        <v>13.63017</v>
+        <v>9.0661799999999992</v>
       </c>
       <c r="O4" s="3">
-        <v>43168.587002314816</v>
-      </c>
-      <c r="P4" s="1">
-        <v>2.5325000000000002</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>43168.639027777775</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>11.52074</v>
-      </c>
-      <c r="U4" s="3">
-        <v>43228.462337962963</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0.23643</v>
-      </c>
-      <c r="W4" s="3">
-        <v>43228.657465277778</v>
-      </c>
+        <v>43228.522685185184</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>7.8329000000000004</v>
+      </c>
+      <c r="S4" s="3">
+        <v>43276.504953703705</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="3"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="1">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="1"/>
@@ -679,72 +647,60 @@
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>5.2585499999999996</v>
+        <v>5.4684699999999999</v>
       </c>
       <c r="C5" s="3">
-        <v>42996.740324074075</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5.2585499999999996</v>
-      </c>
-      <c r="E5" s="3">
-        <v>42996.740324074075</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>11.7325</v>
-      </c>
-      <c r="I5" s="3">
-        <v>43084.454236111109</v>
+        <v>42996.751909722225</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>11.55179</v>
+      </c>
+      <c r="G5" s="3">
+        <v>43085.585069444445</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>3</v>
       </c>
       <c r="J5" s="1">
-        <v>11.139989999999999</v>
+        <v>12.42751</v>
       </c>
       <c r="K5" s="3">
-        <v>43085.573564814818</v>
+        <v>43168.611319444448</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" s="1">
-        <v>12.72265</v>
+        <v>8.2713000000000001</v>
       </c>
       <c r="O5" s="3">
-        <v>43168.599178240744</v>
-      </c>
-      <c r="P5" s="1">
-        <v>2.3973200000000001</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>43168.651180555556</v>
-      </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1">
-        <v>2</v>
-      </c>
-      <c r="T5" s="1">
-        <v>9.0661799999999992</v>
-      </c>
-      <c r="U5" s="3">
-        <v>43228.522685185184</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0.19733000000000001</v>
-      </c>
-      <c r="W5" s="3">
-        <v>43228.667430555557</v>
-      </c>
+        <v>43228.536562499998</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1">
+        <v>9.2879299999999994</v>
+      </c>
+      <c r="S5" s="3">
+        <v>43276.519791666666</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="3"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="1">
-        <v>2</v>
-      </c>
+      <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="1"/>
@@ -773,72 +729,60 @@
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>5.4684699999999999</v>
+        <v>4.2206000000000001</v>
       </c>
       <c r="C6" s="3">
-        <v>42996.751909722225</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5.4684699999999999</v>
-      </c>
-      <c r="E6" s="3">
-        <v>42996.751909722225</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1">
-        <v>12.05303</v>
-      </c>
-      <c r="I6" s="3">
-        <v>43084.467048611114</v>
+        <v>42996.763379629629</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10.849909999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>43085.596747685187</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>4</v>
       </c>
       <c r="J6" s="1">
-        <v>11.55179</v>
+        <v>11.385199999999999</v>
       </c>
       <c r="K6" s="3">
-        <v>43085.585069444445</v>
+        <v>43168.623368055552</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" s="1">
-        <v>12.42751</v>
+        <v>7.5395799999999999</v>
       </c>
       <c r="O6" s="3">
-        <v>43168.611319444448</v>
-      </c>
-      <c r="P6" s="1">
-        <v>2.6440999999999999</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>43168.662465277775</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1">
-        <v>3</v>
-      </c>
-      <c r="T6" s="1">
-        <v>8.2713000000000001</v>
-      </c>
-      <c r="U6" s="3">
-        <v>43228.536562499998</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0.26495999999999997</v>
-      </c>
-      <c r="W6" s="3">
-        <v>43228.679259259261</v>
-      </c>
+        <v>43228.548611111109</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1">
+        <v>4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>6.1855700000000002</v>
+      </c>
+      <c r="S6" s="3">
+        <v>43276.531053240738</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="3"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1">
-        <v>3</v>
-      </c>
+      <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="1"/>
@@ -867,72 +811,60 @@
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>4.2206000000000001</v>
+        <v>9.4280299999999997</v>
       </c>
       <c r="C7" s="3">
-        <v>42996.763379629629</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4.2206000000000001</v>
-      </c>
-      <c r="E7" s="3">
-        <v>42996.763379629629</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>4</v>
-      </c>
-      <c r="H7" s="1">
-        <v>10.86957</v>
-      </c>
-      <c r="I7" s="3">
-        <v>43084.479131944441</v>
+        <v>42996.784571759257</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.0646599999999999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>43085.611828703702</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <v>5</v>
       </c>
       <c r="J7" s="1">
-        <v>10.849909999999999</v>
+        <v>2.5325000000000002</v>
       </c>
       <c r="K7" s="3">
-        <v>43085.596747685187</v>
+        <v>43168.639027777775</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" s="1">
-        <v>11.385199999999999</v>
+        <v>0.23643</v>
       </c>
       <c r="O7" s="3">
-        <v>43168.623368055552</v>
-      </c>
-      <c r="P7" s="1">
-        <v>5.2183000000000002</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>43168.675520833334</v>
-      </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1">
-        <v>4</v>
-      </c>
-      <c r="T7" s="1">
-        <v>7.5395799999999999</v>
-      </c>
-      <c r="U7" s="3">
-        <v>43228.548611111109</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0.25797999999999999</v>
-      </c>
-      <c r="W7" s="3">
-        <v>43228.690162037034</v>
-      </c>
+        <v>43228.657465277778</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1">
+        <v>5</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.11681999999999999</v>
+      </c>
+      <c r="S7" s="3">
+        <v>43276.596377314818</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="3"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1">
-        <v>4</v>
-      </c>
+      <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="1"/>
@@ -961,45 +893,60 @@
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>9.4280299999999997</v>
+        <v>9.5969300000000004</v>
       </c>
       <c r="C8" s="3">
-        <v>42996.784571759257</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.94274000000000002</v>
-      </c>
-      <c r="E8" s="3">
-        <v>42996.784571759257</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>5</v>
+        <v>42996.791875000003</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.8993899999999999</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43085.623761574076</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
       <c r="J8" s="1">
-        <v>3.0646599999999999</v>
+        <v>2.3973200000000001</v>
       </c>
       <c r="K8" s="3">
-        <v>43085.611828703702</v>
+        <v>43168.651180555556</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="M8" s="1">
+        <v>6</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.19733000000000001</v>
+      </c>
+      <c r="O8" s="3">
+        <v>43228.667430555557</v>
+      </c>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="Q8" s="1">
+        <v>6</v>
+      </c>
+      <c r="R8" s="1">
+        <v>8.8260000000000005E-2</v>
+      </c>
+      <c r="S8" s="3">
+        <v>43276.611643518518</v>
+      </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="1">
-        <v>5</v>
-      </c>
+      <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -1028,45 +975,60 @@
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>9.5969300000000004</v>
+        <v>10.14199</v>
       </c>
       <c r="C9" s="3">
-        <v>42996.791875000003</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.95969000000000004</v>
-      </c>
-      <c r="E9" s="3">
-        <v>42996.791875000003</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>6</v>
+        <v>42996.800949074073</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.2390400000000001</v>
+      </c>
+      <c r="G9" s="3">
+        <v>43085.635798611111</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>7</v>
+      </c>
       <c r="J9" s="1">
-        <v>2.8993899999999999</v>
+        <v>2.6440999999999999</v>
       </c>
       <c r="K9" s="3">
-        <v>43085.623761574076</v>
+        <v>43168.662465277775</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1">
+        <v>7</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.26495999999999997</v>
+      </c>
+      <c r="O9" s="3">
+        <v>43228.679259259261</v>
+      </c>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="Q9" s="1">
+        <v>7</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.13042999999999999</v>
+      </c>
+      <c r="S9" s="3">
+        <v>43276.620810185188</v>
+      </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="1">
-        <v>6</v>
-      </c>
+      <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -1095,45 +1057,60 @@
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>10.14199</v>
+        <v>9.9042600000000007</v>
       </c>
       <c r="C10" s="3">
-        <v>42996.800949074073</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.01413</v>
-      </c>
-      <c r="E10" s="3">
-        <v>42996.800949074073</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>7</v>
+        <v>42996.808472222219</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.4172500000000001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>43085.647546296299</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
       <c r="J10" s="1">
-        <v>3.2390400000000001</v>
+        <v>5.2183000000000002</v>
       </c>
       <c r="K10" s="3">
-        <v>43085.635798611111</v>
+        <v>43168.675520833334</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1">
+        <v>8</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.25797999999999999</v>
+      </c>
+      <c r="O10" s="3">
+        <v>43228.690162037034</v>
+      </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="Q10" s="1">
+        <v>8</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.14485999999999999</v>
+      </c>
+      <c r="S10" s="3">
+        <v>43290.653553240743</v>
+      </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1">
-        <v>7</v>
-      </c>
+      <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -1161,33 +1138,17 @@
       <c r="BE10" s="1"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>9.9042600000000007</v>
-      </c>
-      <c r="C11" s="3">
-        <v>42996.808472222219</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.99026000000000003</v>
-      </c>
-      <c r="E11" s="3">
-        <v>42996.808472222219</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <v>8</v>
-      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1">
-        <v>3.4172500000000001</v>
-      </c>
-      <c r="K11" s="3">
-        <v>43085.647546296299</v>
-      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="P11" s="1"/>
@@ -1198,9 +1159,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1">
-        <v>8</v>
-      </c>
+      <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
